--- a/tut06/output/attendance_report_consolidated.xlsx
+++ b/tut06/output/attendance_report_consolidated.xlsx
@@ -553,17 +553,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -618,12 +618,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -654,17 +654,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -679,22 +679,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -719,12 +719,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -957,17 +957,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1260,22 +1260,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1391,27 +1391,27 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1563,17 +1563,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1588,37 +1588,37 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1628,12 +1628,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1830,12 +1830,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1866,17 +1866,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1891,37 +1891,37 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1931,12 +1931,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2194,12 +2194,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2300,17 +2300,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2371,22 +2371,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2502,32 +2502,32 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2674,22 +2674,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -3078,17 +3078,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -3143,12 +3143,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -3179,17 +3179,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -3381,17 +3381,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3421,17 +3421,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3517,12 +3517,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3825,12 +3825,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -4290,17 +4290,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4320,17 +4320,17 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -4391,12 +4391,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4421,17 +4421,17 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -4492,17 +4492,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4623,32 +4623,32 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -4694,17 +4694,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4734,12 +4734,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -4795,17 +4795,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4825,17 +4825,17 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -4860,12 +4860,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -5300,12 +5300,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -5502,17 +5502,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -5668,12 +5668,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -5704,12 +5704,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -5805,12 +5805,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -5840,12 +5840,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -6244,12 +6244,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -6411,12 +6411,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -6512,12 +6512,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -6547,7 +6547,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -6618,17 +6618,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -6714,12 +6714,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6749,12 +6749,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -6815,12 +6815,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -6840,7 +6840,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -6916,12 +6916,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -7042,7 +7042,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -7183,12 +7183,12 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -7224,17 +7224,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -7244,7 +7244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -7320,17 +7320,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -7421,12 +7421,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -7522,12 +7522,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -7547,12 +7547,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -7592,7 +7592,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -8168,12 +8168,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -8229,12 +8229,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -8330,12 +8330,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -8562,12 +8562,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -8633,17 +8633,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -8688,7 +8688,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -8698,12 +8698,12 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -8759,17 +8759,17 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -8779,17 +8779,17 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -8835,12 +8835,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -8936,12 +8936,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -9006,7 +9006,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -9138,17 +9138,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -9239,17 +9239,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -9264,17 +9264,17 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -9294,7 +9294,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -9340,12 +9340,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -9370,12 +9370,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -9395,7 +9395,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -9814,7 +9814,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -9845,7 +9845,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -9946,12 +9946,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -10062,7 +10062,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -10259,12 +10259,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -10350,17 +10350,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -10420,7 +10420,7 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -10451,12 +10451,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -10476,17 +10476,17 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -10622,7 +10622,7 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -10653,7 +10653,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -10759,17 +10759,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -10986,17 +10986,17 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -11006,12 +11006,12 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -11158,12 +11158,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -11193,7 +11193,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -11360,22 +11360,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -11385,32 +11385,32 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -11430,7 +11430,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -11461,12 +11461,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -11491,22 +11491,22 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -11531,7 +11531,7 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -11562,17 +11562,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -11592,32 +11592,32 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -11632,7 +11632,7 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -11673,7 +11673,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -11865,17 +11865,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -11890,27 +11890,27 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -11920,7 +11920,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -11930,7 +11930,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
@@ -12092,7 +12092,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -12208,7 +12208,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -12269,7 +12269,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -12279,7 +12279,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -12319,12 +12319,12 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -12572,12 +12572,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -12642,7 +12642,7 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -12673,17 +12673,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -12698,7 +12698,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -12743,7 +12743,7 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -12799,7 +12799,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -12844,7 +12844,7 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -12875,7 +12875,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -12945,7 +12945,7 @@
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -12976,7 +12976,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -13183,12 +13183,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -13208,17 +13208,17 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -13228,12 +13228,12 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -13248,7 +13248,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -13279,17 +13279,17 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -13349,7 +13349,7 @@
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -13385,7 +13385,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -13450,7 +13450,7 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -13481,12 +13481,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -13551,7 +13551,7 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -13582,12 +13582,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -13617,12 +13617,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -13683,12 +13683,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -13784,12 +13784,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -13854,7 +13854,7 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -13885,12 +13885,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -14021,22 +14021,22 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -14051,12 +14051,12 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -14087,17 +14087,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -14112,27 +14112,27 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -14157,7 +14157,7 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -14188,7 +14188,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -14218,12 +14218,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -14233,7 +14233,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -14253,12 +14253,12 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -14314,37 +14314,37 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -14359,7 +14359,7 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -14460,7 +14460,7 @@
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -14556,12 +14556,12 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -14592,7 +14592,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -14718,22 +14718,22 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -14794,17 +14794,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -14819,12 +14819,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -14834,12 +14834,12 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -14864,7 +14864,7 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -14965,7 +14965,7 @@
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -14996,17 +14996,17 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -15066,7 +15066,7 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -15198,7 +15198,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -15268,7 +15268,7 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -15299,17 +15299,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -15334,17 +15334,17 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -15369,7 +15369,7 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -15435,12 +15435,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -15501,17 +15501,17 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -15526,7 +15526,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -15536,22 +15536,22 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -15566,12 +15566,12 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -15602,7 +15602,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -15612,7 +15612,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -15632,17 +15632,17 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -15672,7 +15672,7 @@
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -15773,7 +15773,7 @@
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -15829,7 +15829,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -15874,7 +15874,7 @@
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -15940,12 +15940,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -15975,7 +15975,7 @@
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -16006,12 +16006,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -16076,7 +16076,7 @@
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -16177,7 +16177,7 @@
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -16208,12 +16208,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -16233,7 +16233,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -16273,12 +16273,12 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -16309,12 +16309,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -16410,7 +16410,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -16435,17 +16435,17 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -16475,12 +16475,12 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -16511,12 +16511,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -16536,7 +16536,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -16581,7 +16581,7 @@
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -16652,7 +16652,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -16682,7 +16682,7 @@
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -16713,12 +16713,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -16753,7 +16753,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -16814,17 +16814,17 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -16839,17 +16839,17 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -16915,7 +16915,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -16985,7 +16985,7 @@
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -17016,12 +17016,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -17041,7 +17041,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -17056,12 +17056,12 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -17117,7 +17117,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -17152,12 +17152,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
@@ -17218,12 +17218,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -17288,7 +17288,7 @@
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
@@ -17329,7 +17329,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -17389,7 +17389,7 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -17425,7 +17425,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -17490,7 +17490,7 @@
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -17521,12 +17521,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -17546,17 +17546,17 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -17566,7 +17566,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
@@ -17622,17 +17622,17 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -17647,37 +17647,37 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -17687,7 +17687,7 @@
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
@@ -17728,7 +17728,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -17758,7 +17758,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -17793,7 +17793,7 @@
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -17824,17 +17824,17 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -17869,7 +17869,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -17894,7 +17894,7 @@
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -18026,12 +18026,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -18051,12 +18051,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -18081,7 +18081,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -18127,12 +18127,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -18147,7 +18147,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -18162,7 +18162,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -18197,7 +18197,7 @@
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -18329,7 +18329,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -18430,12 +18430,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -18455,7 +18455,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -18485,7 +18485,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -18495,12 +18495,12 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -18632,17 +18632,17 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -18657,37 +18657,37 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -18733,12 +18733,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -18758,7 +18758,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -18803,7 +18803,7 @@
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -18874,7 +18874,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -18935,17 +18935,17 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -18960,7 +18960,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -18990,7 +18990,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -19005,7 +19005,7 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -19036,17 +19036,17 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -19071,7 +19071,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -19081,12 +19081,12 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -19106,7 +19106,7 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -19137,12 +19137,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -19207,7 +19207,7 @@
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -19238,7 +19238,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -19308,7 +19308,7 @@
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -19440,7 +19440,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -19465,17 +19465,17 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -19490,12 +19490,12 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -19510,7 +19510,7 @@
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -19541,7 +19541,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -19551,7 +19551,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -19566,17 +19566,17 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -19611,7 +19611,7 @@
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -19672,12 +19672,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -19712,7 +19712,7 @@
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -19743,17 +19743,17 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -19813,7 +19813,7 @@
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -19874,7 +19874,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -19884,22 +19884,22 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -19909,12 +19909,12 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
@@ -19945,17 +19945,17 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -19975,17 +19975,17 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -20046,12 +20046,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -20071,7 +20071,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -20081,7 +20081,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -20116,7 +20116,7 @@
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -20177,17 +20177,17 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -20212,12 +20212,12 @@
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -20248,17 +20248,17 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -20273,7 +20273,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -20283,12 +20283,12 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -20303,7 +20303,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -20313,12 +20313,12 @@
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -20349,17 +20349,17 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -20384,17 +20384,17 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -20404,7 +20404,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -20414,12 +20414,12 @@
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -20450,17 +20450,17 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -20490,7 +20490,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -20520,7 +20520,7 @@
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -20566,7 +20566,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -20591,7 +20591,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -20606,7 +20606,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -20616,12 +20616,12 @@
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -20652,12 +20652,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -20722,7 +20722,7 @@
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
@@ -20753,7 +20753,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -20763,7 +20763,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -20788,12 +20788,12 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -20823,7 +20823,7 @@
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
@@ -20854,12 +20854,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -20894,7 +20894,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -20924,7 +20924,7 @@
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -20955,17 +20955,17 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -20980,22 +20980,22 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -21005,12 +21005,12 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -21020,12 +21020,12 @@
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
@@ -21056,17 +21056,17 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -21126,7 +21126,7 @@
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
@@ -21157,17 +21157,17 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -21182,27 +21182,27 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -21212,7 +21212,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -21222,12 +21222,12 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -21328,7 +21328,7 @@
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
@@ -21359,12 +21359,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -21399,12 +21399,12 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -21429,7 +21429,7 @@
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -21460,7 +21460,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -21470,7 +21470,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -21500,7 +21500,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
@@ -21561,17 +21561,17 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -21662,17 +21662,17 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -21702,7 +21702,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -21712,12 +21712,12 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -21727,12 +21727,12 @@
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -21763,17 +21763,17 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -21788,7 +21788,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -21803,12 +21803,12 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
@@ -21833,7 +21833,7 @@
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -21864,17 +21864,17 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -21934,7 +21934,7 @@
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -21965,17 +21965,17 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -21995,7 +21995,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -22066,17 +22066,17 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -22136,7 +22136,7 @@
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -22167,17 +22167,17 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -22237,7 +22237,7 @@
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -22268,17 +22268,17 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -22293,22 +22293,22 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -22323,7 +22323,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -22333,12 +22333,12 @@
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -22369,17 +22369,17 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -22409,7 +22409,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -22439,7 +22439,7 @@
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
@@ -22470,7 +22470,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -22510,7 +22510,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -22525,7 +22525,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
@@ -22571,22 +22571,22 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -22601,22 +22601,22 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
@@ -22626,7 +22626,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -22636,12 +22636,12 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -22672,17 +22672,17 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -22697,12 +22697,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -22712,7 +22712,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -22742,7 +22742,7 @@
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
@@ -22783,7 +22783,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -22843,7 +22843,7 @@
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
